--- a/input/RESULTS5-2A-Test-0.0.0.xlsx
+++ b/input/RESULTS5-2A-Test-0.0.0.xlsx
@@ -1160,6 +1160,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2034,7 +2035,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -2042,7 +2043,7 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -2122,19 +2123,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2626,11 +2627,11 @@
   </sheetPr>
   <dimension ref="A3:AO579"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A150" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E162" activeCellId="0" sqref="E162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="10.53"/>
@@ -5191,31 +5192,41 @@
       <c r="B155" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="C155" s="80"/>
+      <c r="C155" s="80" t="n">
+        <v>1664.34</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C156" s="83"/>
+      <c r="C156" s="83" t="n">
+        <v>438.24</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C157" s="83"/>
+      <c r="C157" s="83" t="n">
+        <v>1062.16</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="C158" s="83"/>
+      <c r="C158" s="83" t="n">
+        <v>1370.48</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C159" s="85"/>
+      <c r="C159" s="85" t="n">
+        <v>967.28</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="38"/>
@@ -5239,25 +5250,33 @@
       <c r="B163" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="C163" s="80"/>
+      <c r="C163" s="80" t="n">
+        <v>804.02</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="C164" s="83"/>
+      <c r="C164" s="83" t="n">
+        <v>436</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="C165" s="83"/>
+      <c r="C165" s="83" t="n">
+        <v>1024.2</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="C166" s="85"/>
+      <c r="C166" s="85" t="n">
+        <v>581.04</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C167" s="1"/>
@@ -5280,13 +5299,17 @@
       <c r="B170" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="C170" s="80"/>
+      <c r="C170" s="80" t="n">
+        <v>646.13</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="C171" s="85"/>
+      <c r="C171" s="85" t="n">
+        <v>419.35</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="89" t="s">

--- a/input/RESULTS5-2A-Test-0.0.0.xlsx
+++ b/input/RESULTS5-2A-Test-0.0.0.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="YourData" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_Fill" vbProcedure="false">YourData!$A$65</definedName>
   </definedNames>
@@ -26,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="204">
   <si>
     <t xml:space="preserve">STANDARD 140 OUTPUT FORM - RESULTS    </t>
   </si>
@@ -430,7 +427,13 @@
     <t xml:space="preserve">Software:</t>
   </si>
   <si>
+    <t xml:space="preserve">TestSoftware</t>
+  </si>
+  <si>
     <t xml:space="preserve">Version:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">Date of Results:</t>
@@ -1147,13 +1150,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mmm\-yy"/>
     <numFmt numFmtId="166" formatCode="dd\-mmm_)"/>
-    <numFmt numFmtId="167" formatCode="General"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="d\-mmm"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="168" formatCode="d\-mmm"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1642,7 +1644,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1658,7 +1660,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1674,7 +1676,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2035,7 +2037,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -2043,7 +2045,7 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -2094,7 +2096,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2123,19 +2125,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2323,303 +2325,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Read Me"/>
-      <sheetName val="Adding Results"/>
-      <sheetName val="YourData"/>
-      <sheetName val="Title Page"/>
-      <sheetName val="Program List"/>
-      <sheetName val="Table List"/>
-      <sheetName val="Figure List"/>
-      <sheetName val="Tables 1"/>
-      <sheetName val="Tables 2"/>
-      <sheetName val="Tables 3"/>
-      <sheetName val="Tables 4"/>
-      <sheetName val="Tables 5"/>
-      <sheetName val="Tables 6"/>
-      <sheetName val="Tables 7"/>
-      <sheetName val="Tables M1"/>
-      <sheetName val="Tables M2"/>
-      <sheetName val="Tables M3"/>
-      <sheetName val="Fig B8-1 Ann Incident Solar"/>
-      <sheetName val="Fig B8-2 Ann SolRad Unshaded"/>
-      <sheetName val="Fig B8-3 Ann SolRad Shaded"/>
-      <sheetName val="Fig B8-4 Trans Coeff"/>
-      <sheetName val="Fig B8-5 OH&amp;Fin Shade Coeff"/>
-      <sheetName val="Fig B8-6 Sky Temp"/>
-      <sheetName val="Fig B8-7 Lomass Ann Heat"/>
-      <sheetName val="Fig B8-8 Lomass Ann Cool"/>
-      <sheetName val="Fig B8-9 Lomass Peak Heat"/>
-      <sheetName val="Fig B8-10 Lomass Peak Cool"/>
-      <sheetName val="Fig B8-11 Himass Ann Heat"/>
-      <sheetName val="Fig B8-12 Himass Ann Cool"/>
-      <sheetName val="Fig B8-13 Himass Peak Heat"/>
-      <sheetName val="Fig B8-14 Himass Peak Cool"/>
-      <sheetName val="Fig B8-15 Delta-S Win-Ann"/>
-      <sheetName val="Fig B8-16 Delta-S Win-Peak"/>
-      <sheetName val="Fig B8-17 Del-ShadeOrient-Load"/>
-      <sheetName val="Fig B8-18 Del-ShadeOrient-Peak"/>
-      <sheetName val="Fig B8-19 Del-640650960-Load"/>
-      <sheetName val="Fig B8-20 Del-640650960-Peak"/>
-      <sheetName val="Fig B8-21 Delta-Mass Effect-Ann"/>
-      <sheetName val="Fig B8-22 Delta-Mass Effect-Pk"/>
-      <sheetName val="Fig B8-23 660+ Ann Heat"/>
-      <sheetName val="Fig B8-24 660+ Ann Cool"/>
-      <sheetName val="Fig B8-25 660+ Peak Heat"/>
-      <sheetName val="Fig B8-26 660+ Peak Cool"/>
-      <sheetName val="Fig B8-27 Delta-Windows-Load"/>
-      <sheetName val="Fig B8-28 Delta-Windows-Peak"/>
-      <sheetName val="Fig B8-29 Delta-Insul-Load"/>
-      <sheetName val="Fig B8-30 Delta-Insul-Peak"/>
-      <sheetName val="Fig B8-31 Del-Mass-Ins-Load"/>
-      <sheetName val="Fig B8-32 Del-Mass-Ins-Peak"/>
-      <sheetName val="Fig B8-33 FF Average Temp"/>
-      <sheetName val="Fig B8-34 FF Maximum Temp"/>
-      <sheetName val="Fig B8-35 FF MinTemp y_ax_-25"/>
-      <sheetName val="Fig B8-36 195to250 Ann Heat"/>
-      <sheetName val="Fig B8-37 195to250 Ann Cool"/>
-      <sheetName val="Fig B8-38 195to250 Peak Heat"/>
-      <sheetName val="Fig B8-39 195to250 Peak Cool"/>
-      <sheetName val="Fig B8-40 270to320 Ann Heat"/>
-      <sheetName val="Fig B8-41 270to320 Ann Cool"/>
-      <sheetName val="Fig B8-42 270to320 Peak Heat"/>
-      <sheetName val="Fig B8-43 270to320 Peak Cool"/>
-      <sheetName val="Fig B8-44 Delta 195to220 Load"/>
-      <sheetName val="Fig B8-45 Delta 195to220 Peak"/>
-      <sheetName val="Fig B8-46 Delta 220to270 Load"/>
-      <sheetName val="Fig B8-47 Delta 220to270 Peak"/>
-      <sheetName val="Fig B8-48 Delta 270to320 Load"/>
-      <sheetName val="Fig B8-49 Delta 270to320 Peak"/>
-      <sheetName val="Fig B8-50 395to440,8n0 Ann Heat"/>
-      <sheetName val="Fig B8-51 395to440,8n0 Ann Cool"/>
-      <sheetName val="Fig B8-52 395to440,8n0 Pk Heat"/>
-      <sheetName val="Fig B8-53 395to440,8n0 Pk Cool"/>
-      <sheetName val="FigB8-54 Del 395-600,810,900 Ld"/>
-      <sheetName val="FigB8-55 Del 395-600,810,900 Pk"/>
-      <sheetName val="Fig B8-56 SurfCoefs-Load"/>
-      <sheetName val="Fig B8-57 SurfCoefs-Peak"/>
-      <sheetName val="Fig B8-58 SurfHT Delta-Load"/>
-      <sheetName val="Fig B8-59 SurfHT Delta-Peak"/>
-      <sheetName val="Fig B8-M1 MthlyHtg-600"/>
-      <sheetName val="Fig B8-M2 MthlyCtg-600"/>
-      <sheetName val="Fig B8-M3 MthlyPkHtg-600"/>
-      <sheetName val="Fig B8-M4 MthlyPkClg-600"/>
-      <sheetName val="Fig B8-M5 MthlyHtg-900"/>
-      <sheetName val="Fig B8-M6 MthlyCtg-900"/>
-      <sheetName val="Fig B8-M7 MthlyPkHtg-900"/>
-      <sheetName val="Fig B8-M8 MthlyPkClg-900"/>
-      <sheetName val="Fig B8-M9 Del-MthlyHtg 600-900"/>
-      <sheetName val="Fig B8-M10 Del-MthlyCtg 600-900"/>
-      <sheetName val="Fig B8-M11 Del-MthlyPkH 600-900"/>
-      <sheetName val="Fig B8-M12 Del-MthlyPkC 600-900"/>
-      <sheetName val="Fig B8-H1 Hrly-Temp Freq"/>
-      <sheetName val="Fig B8-H2 Hrly-IncSol-Horz"/>
-      <sheetName val="Fig B8-H3 Hrly-IncidentSol-S"/>
-      <sheetName val="Fig B8-H4 Hrly-IncidentSol-W"/>
-      <sheetName val="Fig B8-H5 Hrly-TransSol-Feb1"/>
-      <sheetName val="Fig B8-H6 Hrly-Trans-May4-600"/>
-      <sheetName val="Fig B8-H7 Hrly-Trans-May4-6670"/>
-      <sheetName val="Fig B8-H8 Hrly-Trans-Jul14-600"/>
-      <sheetName val="Fig B8-H9 Hrl-Trans-Jul14-6670"/>
-      <sheetName val="Fig B8-H10 Hrly-Tsky-ClearCloud"/>
-      <sheetName val="Fig B8-H11 Hrly-Tsky-ColdHot"/>
-      <sheetName val="Fig B8-H12 Hrly-FF Temp-ColdDay"/>
-      <sheetName val="Fig B8-H13 Hrly-FF Temp-HotDay"/>
-      <sheetName val="Fig B8-H14 Hr-6980FF T-ColdDay"/>
-      <sheetName val="Fig B8-H15 Hrly-600Loads-Cold"/>
-      <sheetName val="Fig B8-H16 Hrly-600Loads-Hot"/>
-      <sheetName val="Fig B8-H17 Hrly-640Loads-Cold"/>
-      <sheetName val="Fig B8-H18-Hrly-640Tzone-Cold"/>
-      <sheetName val="Fig B8-H19 Hrly-940Loads-Cold"/>
-      <sheetName val="Fig B8-H20-Hrly-940Tzone-Cold"/>
-      <sheetName val="Fig B8-H21 Hrly-660Loads-Cold"/>
-      <sheetName val="Fig B8-H22 Hrly-660Loads-Hot"/>
-      <sheetName val="Fig B8-H23 Hrly-670Loads-Cold"/>
-      <sheetName val="Fig B8-H24 Hrly-670Loads-Hot"/>
-      <sheetName val="Fig B8-H25 Hrly-680Loads-Cold"/>
-      <sheetName val="Fig B8-H26 Hrly-680Loads-Hot"/>
-      <sheetName val="Fig B8-H27 Hrly-685Loads-Cold"/>
-      <sheetName val="Fig B8-H28 Hrly-685Loads-Hot"/>
-      <sheetName val="Fig B8-H29 Hrly-695Loads-Cold"/>
-      <sheetName val="Fig B8-H30 Hrly-695Loads-Hot"/>
-      <sheetName val="Fig B8-H31 Hrly-900Loads-Cold"/>
-      <sheetName val="Fig B8-H32 Hrly-900Loads-Hot"/>
-      <sheetName val="Fig B8-H33 Hrly-980Loads-Cold"/>
-      <sheetName val="Fig B8-H34 Hrly-980Loads-Hot"/>
-      <sheetName val="Fig B8-H35 Hrly-985Loads-Cold"/>
-      <sheetName val="Fig B8-H36 Hrly-985Loads-Hot"/>
-      <sheetName val="Fig B8-H37 Hrly-995Loads-Cold"/>
-      <sheetName val="Fig B8-H38 Hrly-995Loads-Hot"/>
-      <sheetName val="DATA for charts"/>
-      <sheetName val="BSIMAC"/>
-      <sheetName val="CSE"/>
-      <sheetName val="DeST"/>
-      <sheetName val="EnergyPlus"/>
-      <sheetName val="ESP-r"/>
-      <sheetName val="TRNSYS"/>
-      <sheetName val="TestSpecAlt"/>
-      <sheetName val="K"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="22">
-          <cell r="C22" t="str">
-            <v>Version 9.0.1</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="G24" t="str">
-            <v>EnergyPlus</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="G25">
-            <v>43392</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
-      <sheetData sheetId="86"/>
-      <sheetData sheetId="87"/>
-      <sheetData sheetId="88"/>
-      <sheetData sheetId="89"/>
-      <sheetData sheetId="90"/>
-      <sheetData sheetId="91"/>
-      <sheetData sheetId="92"/>
-      <sheetData sheetId="93"/>
-      <sheetData sheetId="94"/>
-      <sheetData sheetId="95"/>
-      <sheetData sheetId="96"/>
-      <sheetData sheetId="97"/>
-      <sheetData sheetId="98"/>
-      <sheetData sheetId="99"/>
-      <sheetData sheetId="100"/>
-      <sheetData sheetId="101"/>
-      <sheetData sheetId="102"/>
-      <sheetData sheetId="103"/>
-      <sheetData sheetId="104"/>
-      <sheetData sheetId="105"/>
-      <sheetData sheetId="106"/>
-      <sheetData sheetId="107"/>
-      <sheetData sheetId="108"/>
-      <sheetData sheetId="109"/>
-      <sheetData sheetId="110"/>
-      <sheetData sheetId="111"/>
-      <sheetData sheetId="112"/>
-      <sheetData sheetId="113"/>
-      <sheetData sheetId="114"/>
-      <sheetData sheetId="115"/>
-      <sheetData sheetId="116"/>
-      <sheetData sheetId="117"/>
-      <sheetData sheetId="118"/>
-      <sheetData sheetId="119"/>
-      <sheetData sheetId="120"/>
-      <sheetData sheetId="121"/>
-      <sheetData sheetId="122"/>
-      <sheetData sheetId="123"/>
-      <sheetData sheetId="124"/>
-      <sheetData sheetId="125"/>
-      <sheetData sheetId="126"/>
-      <sheetData sheetId="127"/>
-      <sheetData sheetId="128"/>
-      <sheetData sheetId="129"/>
-      <sheetData sheetId="130"/>
-      <sheetData sheetId="131"/>
-      <sheetData sheetId="132"/>
-      <sheetData sheetId="133"/>
-      <sheetData sheetId="134"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2627,11 +2332,11 @@
   </sheetPr>
   <dimension ref="A3:AO579"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A150" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E162" activeCellId="0" sqref="E162"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C63" activeCellId="0" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="10.53"/>
@@ -3026,9 +2731,8 @@
       <c r="B61" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="22" t="str">
-        <f aca="false">'[1]Adding Results'!G24</f>
-        <v>EnergyPlus</v>
+      <c r="C61" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
@@ -3037,11 +2741,10 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="26" t="str">
-        <f aca="false">'[1]Adding Results'!C22</f>
-        <v>Version 9.0.1</v>
+        <v>71</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
@@ -3050,11 +2753,10 @@
     </row>
     <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C63" s="30" t="n">
-        <f aca="false">'[1]Adding Results'!G25</f>
-        <v>43392</v>
+        <v>36526</v>
       </c>
       <c r="D63" s="31"/>
       <c r="E63" s="31"/>
@@ -3079,13 +2781,13 @@
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="34"/>
       <c r="C67" s="35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D67" s="36"/>
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
       <c r="G67" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H67" s="38"/>
       <c r="I67" s="39"/>
@@ -3096,38 +2798,38 @@
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="40"/>
       <c r="C68" s="41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E68" s="43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="44"/>
       <c r="H68" s="44"/>
       <c r="I68" s="45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L68" s="46"/>
       <c r="M68" s="44"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="47" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C69" s="48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D69" s="49" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F69" s="50" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G69" s="50" t="s">
         <v>39</v>
@@ -3136,10 +2838,10 @@
         <v>40</v>
       </c>
       <c r="I69" s="52" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J69" s="50" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K69" s="50" t="s">
         <v>39</v>
@@ -3151,7 +2853,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C70" s="54" t="n">
         <v>4.324</v>
@@ -3186,7 +2888,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C71" s="59" t="n">
         <v>4.375</v>
@@ -3221,7 +2923,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C72" s="59" t="n">
         <v>4.485</v>
@@ -3256,7 +2958,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C73" s="59" t="n">
         <v>4.784</v>
@@ -3291,7 +2993,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C74" s="59" t="n">
         <v>2.662</v>
@@ -3333,7 +3035,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C75" s="59" t="n">
         <v>0</v>
@@ -3584,7 +3286,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C81" s="59" t="n">
         <v>1.664</v>
@@ -3619,7 +3321,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="40" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C82" s="59" t="n">
         <v>1.956</v>
@@ -3654,7 +3356,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C83" s="59" t="n">
         <v>3.337</v>
@@ -3689,7 +3391,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C84" s="59" t="n">
         <v>3.994</v>
@@ -3731,7 +3433,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C85" s="59" t="n">
         <v>1.067</v>
@@ -3773,7 +3475,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="40" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C86" s="59" t="n">
         <v>0</v>
@@ -3815,7 +3517,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C87" s="59" t="n">
         <v>2.689</v>
@@ -3983,7 +3685,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="40" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C91" s="59" t="n">
         <v>4.07</v>
@@ -4025,7 +3727,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="40" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C92" s="59" t="n">
         <v>5.105</v>
@@ -4067,7 +3769,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="40" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C93" s="59" t="n">
         <v>6.047</v>
@@ -4109,7 +3811,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C94" s="59" t="n">
         <v>5.405</v>
@@ -4151,7 +3853,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="40" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C95" s="59" t="n">
         <v>6.455</v>
@@ -4193,7 +3895,7 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="40" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C96" s="59" t="n">
         <v>9.93</v>
@@ -4235,7 +3937,7 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="40" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C97" s="59" t="n">
         <v>5.279</v>
@@ -4277,7 +3979,7 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="40" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C98" s="59" t="n">
         <v>4.899</v>
@@ -4319,7 +4021,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="40" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C99" s="59" t="n">
         <v>4.385</v>
@@ -4361,7 +4063,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="40" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C100" s="59" t="n">
         <v>4.57</v>
@@ -4403,7 +4105,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="40" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C101" s="59" t="n">
         <v>4.424</v>
@@ -4445,7 +4147,7 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="40" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C102" s="59" t="n">
         <v>4.425</v>
@@ -4487,7 +4189,7 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C103" s="59" t="n">
         <v>4.691</v>
@@ -4529,7 +4231,7 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="40" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C104" s="59" t="n">
         <v>3.771</v>
@@ -4564,7 +4266,7 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C105" s="59" t="n">
         <v>4.641</v>
@@ -4599,7 +4301,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="40" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C106" s="59" t="n">
         <v>6.348</v>
@@ -4634,7 +4336,7 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="40" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C107" s="59" t="n">
         <v>8.08</v>
@@ -4669,7 +4371,7 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C108" s="59" t="n">
         <v>6.906</v>
@@ -4704,7 +4406,7 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C109" s="59" t="n">
         <v>5.62</v>
@@ -4739,7 +4441,7 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="40" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C110" s="59" t="n">
         <v>4.5</v>
@@ -4879,7 +4581,7 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C114" s="59" t="n">
         <v>5.116</v>
@@ -4914,7 +4616,7 @@
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="47" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C115" s="66" t="n">
         <v>2.342</v>
@@ -4949,7 +4651,7 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E116" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4982,11 +4684,11 @@
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="34"/>
       <c r="C127" s="73" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D127" s="74"/>
       <c r="E127" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="38"/>
@@ -4998,32 +4700,32 @@
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="40"/>
       <c r="C128" s="75" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D128" s="76" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="44"/>
       <c r="G128" s="77"/>
       <c r="H128" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I128" s="7"/>
       <c r="K128" s="78"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="47" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C129" s="79" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D129" s="48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E129" s="50" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F129" s="50" t="s">
         <v>39</v>
@@ -5032,10 +4734,10 @@
         <v>40</v>
       </c>
       <c r="H129" s="52" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I129" s="50" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J129" s="50" t="s">
         <v>39</v>
@@ -5046,7 +4748,7 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C130" s="80"/>
       <c r="D130" s="54"/>
@@ -5060,7 +4762,7 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C131" s="83"/>
       <c r="D131" s="59"/>
@@ -5074,7 +4776,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="40" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C132" s="83"/>
       <c r="D132" s="59"/>
@@ -5088,7 +4790,7 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="40" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C133" s="83"/>
       <c r="D133" s="59"/>
@@ -5102,7 +4804,7 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="84" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C134" s="83"/>
       <c r="D134" s="59"/>
@@ -5116,7 +4818,7 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="84" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C135" s="83"/>
       <c r="D135" s="59"/>
@@ -5130,7 +4832,7 @@
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C136" s="85"/>
       <c r="D136" s="66"/>
@@ -5144,7 +4846,7 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E137" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5154,13 +4856,13 @@
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D149" s="72"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F150" s="87"/>
     </row>
@@ -5169,28 +4871,28 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F152" s="87"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F153" s="87"/>
     </row>
     <row r="154" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F154" s="87"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="88" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C155" s="80" t="n">
         <v>1664.34</v>
@@ -5198,7 +4900,7 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="40" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C156" s="83" t="n">
         <v>438.24</v>
@@ -5206,7 +4908,7 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C157" s="83" t="n">
         <v>1062.16</v>
@@ -5214,7 +4916,7 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C158" s="83" t="n">
         <v>1370.48</v>
@@ -5222,7 +4924,7 @@
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="47" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C159" s="85" t="n">
         <v>967.28</v>
@@ -5234,21 +4936,21 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C161" s="1"/>
     </row>
     <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="88" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C163" s="80" t="n">
         <v>804.02</v>
@@ -5256,7 +4958,7 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="84" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C164" s="83" t="n">
         <v>436</v>
@@ -5264,7 +4966,7 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="84" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C165" s="83" t="n">
         <v>1024.2</v>
@@ -5272,7 +4974,7 @@
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="47" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C166" s="85" t="n">
         <v>581.04</v>
@@ -5283,21 +4985,21 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C168" s="1"/>
     </row>
     <row r="169" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="88" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C170" s="80" t="n">
         <v>646.13</v>
@@ -5305,7 +5007,7 @@
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="47" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C171" s="85" t="n">
         <v>419.35</v>
@@ -5313,7 +5015,7 @@
     </row>
     <row r="174" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="89" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="90"/>
@@ -5328,11 +5030,11 @@
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="91"/>
       <c r="C175" s="92" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D175" s="93"/>
       <c r="E175" s="93" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F175" s="93"/>
       <c r="G175" s="93"/>
@@ -5344,16 +5046,16 @@
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="84"/>
       <c r="C176" s="96" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D176" s="97" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="98"/>
       <c r="H176" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I176" s="13"/>
       <c r="J176" s="6"/>
@@ -5361,16 +5063,16 @@
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="100" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C177" s="101" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D177" s="50" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E177" s="50" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F177" s="50" t="s">
         <v>39</v>
@@ -5379,10 +5081,10 @@
         <v>40</v>
       </c>
       <c r="H177" s="102" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I177" s="50" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J177" s="50" t="s">
         <v>39</v>
@@ -5393,7 +5095,7 @@
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="104" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C178" s="105"/>
       <c r="D178" s="106"/>
@@ -5407,12 +5109,12 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="89" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
@@ -5440,7 +5142,7 @@
       <c r="D186" s="93"/>
       <c r="E186" s="93"/>
       <c r="F186" s="110" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G186" s="93"/>
       <c r="H186" s="93"/>
@@ -5450,7 +5152,7 @@
       <c r="L186" s="93"/>
       <c r="M186" s="93"/>
       <c r="N186" s="110" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O186" s="93"/>
       <c r="P186" s="93"/>
@@ -5460,28 +5162,28 @@
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="111"/>
       <c r="C187" s="112" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D187" s="113" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E187" s="114"/>
       <c r="F187" s="13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G187" s="115"/>
       <c r="H187" s="13"/>
       <c r="I187" s="13"/>
       <c r="J187" s="13"/>
       <c r="K187" s="112" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L187" s="113" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M187" s="13"/>
       <c r="N187" s="13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O187" s="13"/>
       <c r="P187" s="114"/>
@@ -5491,86 +5193,86 @@
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="111"/>
       <c r="C188" s="112" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D188" s="113" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E188" s="114" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F188" s="13"/>
       <c r="G188" s="115"/>
       <c r="H188" s="13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I188" s="13"/>
       <c r="J188" s="13"/>
       <c r="K188" s="112" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L188" s="113" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M188" s="114" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N188" s="13"/>
       <c r="O188" s="13"/>
       <c r="P188" s="114" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q188" s="13"/>
       <c r="R188" s="99"/>
     </row>
     <row r="189" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="116" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C189" s="117" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D189" s="118" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E189" s="102" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F189" s="50" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G189" s="119" t="s">
         <v>40</v>
       </c>
       <c r="H189" s="50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I189" s="50" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J189" s="50" t="s">
         <v>40</v>
       </c>
       <c r="K189" s="117" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L189" s="118" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M189" s="50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N189" s="50" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O189" s="50" t="s">
         <v>40</v>
       </c>
       <c r="P189" s="102" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q189" s="50" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R189" s="103" t="s">
         <v>40</v>
@@ -6009,14 +5711,14 @@
     </row>
     <row r="225" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L225" s="126"/>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="34"/>
       <c r="C226" s="37" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D226" s="37"/>
       <c r="E226" s="38"/>
@@ -6025,13 +5727,13 @@
       <c r="H226" s="127"/>
       <c r="I226" s="94"/>
       <c r="J226" s="128" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K226" s="129"/>
       <c r="L226" s="74"/>
       <c r="M226" s="93"/>
       <c r="N226" s="93" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O226" s="93"/>
       <c r="P226" s="93"/>
@@ -6044,59 +5746,59 @@
       <c r="B227" s="40"/>
       <c r="C227" s="131"/>
       <c r="D227" s="41" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F227" s="132"/>
       <c r="G227" s="133" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H227" s="71"/>
       <c r="I227" s="134" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J227" s="135" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K227" s="136" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L227" s="137" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M227" s="89"/>
       <c r="N227" s="115"/>
       <c r="O227" s="89" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P227" s="89"/>
       <c r="Q227" s="13"/>
       <c r="R227" s="138" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S227" s="89"/>
       <c r="T227" s="99"/>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="139" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C228" s="112" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E228" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F228" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="F228" s="140" t="s">
-        <v>177</v>
-      </c>
       <c r="G228" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I228" s="112" t="n">
         <v>600</v>
@@ -6137,61 +5839,61 @@
     </row>
     <row r="229" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="75" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C229" s="112" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F229" s="140" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I229" s="117" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J229" s="50" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K229" s="103" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L229" s="117" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M229" s="50" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N229" s="119" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O229" s="50" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P229" s="50" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q229" s="50" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R229" s="102" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="S229" s="50" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="T229" s="103" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6753,7 +6455,7 @@
       <c r="C254" s="87"/>
       <c r="H254" s="71"/>
       <c r="L254" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M254" s="1"/>
       <c r="Z254" s="71"/>
@@ -6783,7 +6485,7 @@
     </row>
     <row r="257" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="89" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C257" s="87"/>
       <c r="D257" s="126"/>
@@ -6791,7 +6493,7 @@
       <c r="L257" s="71"/>
       <c r="M257" s="71"/>
       <c r="Y257" s="94" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Z257" s="95"/>
       <c r="AB257" s="146"/>
@@ -6806,7 +6508,7 @@
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="34"/>
       <c r="C258" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D258" s="38"/>
       <c r="E258" s="38"/>
@@ -6822,7 +6524,7 @@
       <c r="O258" s="37"/>
       <c r="P258" s="38"/>
       <c r="Q258" s="37" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="R258" s="38"/>
       <c r="S258" s="38"/>
@@ -6832,7 +6534,7 @@
       <c r="W258" s="38"/>
       <c r="X258" s="36"/>
       <c r="Y258" s="111" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Z258" s="99"/>
       <c r="AB258" s="146"/>
@@ -6841,7 +6543,7 @@
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="40"/>
       <c r="C259" s="137" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G259" s="71"/>
       <c r="H259" s="71"/>
@@ -6850,7 +6552,7 @@
       <c r="M259" s="71"/>
       <c r="N259" s="148"/>
       <c r="O259" s="89" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P259" s="71"/>
       <c r="Q259" s="71"/>
@@ -6862,7 +6564,7 @@
       <c r="W259" s="71"/>
       <c r="X259" s="149"/>
       <c r="Y259" s="137" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z259" s="99"/>
       <c r="AB259" s="150"/>
@@ -6876,7 +6578,7 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="139" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C260" s="151" t="n">
         <v>600</v>
@@ -6961,79 +6663,79 @@
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="75" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C261" s="48" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D261" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E261" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F261" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G261" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H261" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I261" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J261" s="51" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K261" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L261" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M261" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N261" s="119" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O261" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P261" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q261" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R261" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S261" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="T261" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="U261" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V261" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="W261" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="X261" s="103" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Y261" s="117" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Z261" s="103" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB261" s="152"/>
       <c r="AC261" s="146"/>
@@ -7800,13 +7502,13 @@
       <c r="B286" s="145"/>
       <c r="C286" s="87"/>
       <c r="F286" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H286" s="71"/>
       <c r="M286" s="71"/>
       <c r="N286" s="71"/>
       <c r="Q286" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z286" s="71"/>
       <c r="AB286" s="146"/>
@@ -7840,14 +7542,14 @@
     </row>
     <row r="289" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B289" s="89" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C289" s="126"/>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="34"/>
       <c r="C290" s="35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D290" s="38"/>
       <c r="E290" s="38"/>
@@ -7858,62 +7560,62 @@
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="40"/>
       <c r="C291" s="137" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D291" s="115"/>
       <c r="E291" s="89" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F291" s="13"/>
       <c r="G291" s="138" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H291" s="99"/>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="139" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C292" s="41" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D292" s="160" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F292" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G292" s="140" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H292" s="141" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="75" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C293" s="48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D293" s="161" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E293" s="51" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F293" s="51" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G293" s="102" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H293" s="103" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8185,35 +7887,35 @@
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="89" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="88" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C329" s="73" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9399,7 +9101,7 @@
       <c r="C477" s="84"/>
       <c r="D477" s="13"/>
       <c r="E477" s="13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/input/RESULTS5-2A-Test-0.0.0.xlsx
+++ b/input/RESULTS5-2A-Test-0.0.0.xlsx
@@ -2037,7 +2037,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -2045,7 +2045,7 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -2125,19 +2125,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2332,11 +2332,11 @@
   </sheetPr>
   <dimension ref="A3:AO579"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C63" activeCellId="0" sqref="C63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A314" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C330" activeCellId="0" sqref="C330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="0" width="10.53"/>
@@ -7922,7 +7922,9 @@
       <c r="B330" s="40" t="n">
         <v>-50</v>
       </c>
-      <c r="C330" s="84"/>
+      <c r="C330" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D330" s="13"/>
       <c r="E330" s="13"/>
     </row>
@@ -7930,7 +7932,9 @@
       <c r="B331" s="40" t="n">
         <v>-49</v>
       </c>
-      <c r="C331" s="84"/>
+      <c r="C331" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D331" s="13"/>
       <c r="E331" s="13"/>
     </row>
@@ -7938,7 +7942,9 @@
       <c r="B332" s="40" t="n">
         <v>-48</v>
       </c>
-      <c r="C332" s="84"/>
+      <c r="C332" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D332" s="13"/>
       <c r="E332" s="13"/>
     </row>
@@ -7946,7 +7952,9 @@
       <c r="B333" s="40" t="n">
         <v>-47</v>
       </c>
-      <c r="C333" s="84"/>
+      <c r="C333" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D333" s="13"/>
       <c r="E333" s="13"/>
     </row>
@@ -7954,7 +7962,9 @@
       <c r="B334" s="40" t="n">
         <v>-46</v>
       </c>
-      <c r="C334" s="84"/>
+      <c r="C334" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D334" s="13"/>
       <c r="E334" s="13"/>
     </row>
@@ -7962,7 +7972,9 @@
       <c r="B335" s="40" t="n">
         <v>-45</v>
       </c>
-      <c r="C335" s="84"/>
+      <c r="C335" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D335" s="13"/>
       <c r="E335" s="13"/>
     </row>
@@ -7970,7 +7982,9 @@
       <c r="B336" s="40" t="n">
         <v>-44</v>
       </c>
-      <c r="C336" s="84"/>
+      <c r="C336" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D336" s="13"/>
       <c r="E336" s="13"/>
     </row>
@@ -7978,7 +7992,9 @@
       <c r="B337" s="40" t="n">
         <v>-43</v>
       </c>
-      <c r="C337" s="84"/>
+      <c r="C337" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D337" s="13"/>
       <c r="E337" s="13"/>
     </row>
@@ -7986,7 +8002,9 @@
       <c r="B338" s="40" t="n">
         <v>-42</v>
       </c>
-      <c r="C338" s="84"/>
+      <c r="C338" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D338" s="13"/>
       <c r="E338" s="13"/>
     </row>
@@ -7994,7 +8012,9 @@
       <c r="B339" s="40" t="n">
         <v>-41</v>
       </c>
-      <c r="C339" s="84"/>
+      <c r="C339" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D339" s="13"/>
       <c r="E339" s="13"/>
     </row>
@@ -8002,7 +8022,9 @@
       <c r="B340" s="40" t="n">
         <v>-40</v>
       </c>
-      <c r="C340" s="84"/>
+      <c r="C340" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D340" s="13"/>
       <c r="E340" s="13"/>
     </row>
@@ -8010,7 +8032,9 @@
       <c r="B341" s="40" t="n">
         <v>-39</v>
       </c>
-      <c r="C341" s="84"/>
+      <c r="C341" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D341" s="13"/>
       <c r="E341" s="13"/>
     </row>
@@ -8018,7 +8042,9 @@
       <c r="B342" s="40" t="n">
         <v>-38</v>
       </c>
-      <c r="C342" s="84"/>
+      <c r="C342" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D342" s="13"/>
       <c r="E342" s="13"/>
     </row>
@@ -8026,7 +8052,9 @@
       <c r="B343" s="40" t="n">
         <v>-37</v>
       </c>
-      <c r="C343" s="84"/>
+      <c r="C343" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D343" s="13"/>
       <c r="E343" s="13"/>
     </row>
@@ -8034,7 +8062,9 @@
       <c r="B344" s="40" t="n">
         <v>-36</v>
       </c>
-      <c r="C344" s="84"/>
+      <c r="C344" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D344" s="13"/>
       <c r="E344" s="13"/>
     </row>
@@ -8042,7 +8072,9 @@
       <c r="B345" s="40" t="n">
         <v>-35</v>
       </c>
-      <c r="C345" s="84"/>
+      <c r="C345" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D345" s="13"/>
       <c r="E345" s="13"/>
     </row>
@@ -8050,7 +8082,9 @@
       <c r="B346" s="40" t="n">
         <v>-34</v>
       </c>
-      <c r="C346" s="84"/>
+      <c r="C346" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D346" s="13"/>
       <c r="E346" s="13"/>
     </row>
@@ -8058,7 +8092,9 @@
       <c r="B347" s="40" t="n">
         <v>-33</v>
       </c>
-      <c r="C347" s="84"/>
+      <c r="C347" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D347" s="13"/>
       <c r="E347" s="13"/>
     </row>
@@ -8066,7 +8102,9 @@
       <c r="B348" s="40" t="n">
         <v>-32</v>
       </c>
-      <c r="C348" s="84"/>
+      <c r="C348" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D348" s="13"/>
       <c r="E348" s="13"/>
     </row>
@@ -8074,7 +8112,9 @@
       <c r="B349" s="40" t="n">
         <v>-31</v>
       </c>
-      <c r="C349" s="84"/>
+      <c r="C349" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D349" s="13"/>
       <c r="E349" s="13"/>
     </row>
@@ -8082,7 +8122,9 @@
       <c r="B350" s="40" t="n">
         <v>-30</v>
       </c>
-      <c r="C350" s="84"/>
+      <c r="C350" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D350" s="13"/>
       <c r="E350" s="13"/>
     </row>
@@ -8090,7 +8132,9 @@
       <c r="B351" s="40" t="n">
         <v>-29</v>
       </c>
-      <c r="C351" s="84"/>
+      <c r="C351" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D351" s="13"/>
       <c r="E351" s="13"/>
     </row>
@@ -8098,7 +8142,9 @@
       <c r="B352" s="40" t="n">
         <v>-28</v>
       </c>
-      <c r="C352" s="84"/>
+      <c r="C352" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D352" s="13"/>
       <c r="E352" s="13"/>
     </row>
@@ -8106,7 +8152,9 @@
       <c r="B353" s="40" t="n">
         <v>-27</v>
       </c>
-      <c r="C353" s="84"/>
+      <c r="C353" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D353" s="13"/>
       <c r="E353" s="13"/>
     </row>
@@ -8114,7 +8162,9 @@
       <c r="B354" s="40" t="n">
         <v>-26</v>
       </c>
-      <c r="C354" s="84"/>
+      <c r="C354" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D354" s="13"/>
       <c r="E354" s="13"/>
     </row>
@@ -8122,7 +8172,9 @@
       <c r="B355" s="40" t="n">
         <v>-25</v>
       </c>
-      <c r="C355" s="84"/>
+      <c r="C355" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D355" s="13"/>
       <c r="E355" s="13"/>
     </row>
@@ -8130,7 +8182,9 @@
       <c r="B356" s="40" t="n">
         <v>-24</v>
       </c>
-      <c r="C356" s="84"/>
+      <c r="C356" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D356" s="13"/>
       <c r="E356" s="13"/>
     </row>
@@ -8138,7 +8192,9 @@
       <c r="B357" s="40" t="n">
         <v>-23</v>
       </c>
-      <c r="C357" s="84"/>
+      <c r="C357" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D357" s="13"/>
       <c r="E357" s="13"/>
     </row>
@@ -8146,7 +8202,9 @@
       <c r="B358" s="40" t="n">
         <v>-22</v>
       </c>
-      <c r="C358" s="84"/>
+      <c r="C358" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D358" s="13"/>
       <c r="E358" s="13"/>
     </row>
@@ -8154,7 +8212,9 @@
       <c r="B359" s="40" t="n">
         <v>-21</v>
       </c>
-      <c r="C359" s="84"/>
+      <c r="C359" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D359" s="13"/>
       <c r="E359" s="13"/>
     </row>
@@ -8162,7 +8222,9 @@
       <c r="B360" s="40" t="n">
         <v>-20</v>
       </c>
-      <c r="C360" s="84"/>
+      <c r="C360" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D360" s="13"/>
       <c r="E360" s="13"/>
     </row>
@@ -8170,7 +8232,9 @@
       <c r="B361" s="40" t="n">
         <v>-19</v>
       </c>
-      <c r="C361" s="84"/>
+      <c r="C361" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D361" s="13"/>
       <c r="E361" s="13"/>
     </row>
@@ -8178,7 +8242,9 @@
       <c r="B362" s="40" t="n">
         <v>-18</v>
       </c>
-      <c r="C362" s="84"/>
+      <c r="C362" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D362" s="13"/>
       <c r="E362" s="13"/>
     </row>
@@ -8186,7 +8252,9 @@
       <c r="B363" s="40" t="n">
         <v>-17</v>
       </c>
-      <c r="C363" s="84"/>
+      <c r="C363" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D363" s="13"/>
       <c r="E363" s="13"/>
     </row>
@@ -8194,7 +8262,9 @@
       <c r="B364" s="40" t="n">
         <v>-16</v>
       </c>
-      <c r="C364" s="84"/>
+      <c r="C364" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D364" s="13"/>
       <c r="E364" s="13"/>
     </row>
@@ -8202,7 +8272,9 @@
       <c r="B365" s="40" t="n">
         <v>-15</v>
       </c>
-      <c r="C365" s="84"/>
+      <c r="C365" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D365" s="13"/>
       <c r="E365" s="13"/>
     </row>
@@ -8210,7 +8282,9 @@
       <c r="B366" s="40" t="n">
         <v>-14</v>
       </c>
-      <c r="C366" s="84"/>
+      <c r="C366" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D366" s="13"/>
       <c r="E366" s="13"/>
     </row>
@@ -8218,7 +8292,9 @@
       <c r="B367" s="40" t="n">
         <v>-13</v>
       </c>
-      <c r="C367" s="84"/>
+      <c r="C367" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D367" s="13"/>
       <c r="E367" s="13"/>
     </row>
@@ -8226,7 +8302,9 @@
       <c r="B368" s="40" t="n">
         <v>-12</v>
       </c>
-      <c r="C368" s="84"/>
+      <c r="C368" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D368" s="13"/>
       <c r="E368" s="13"/>
     </row>
@@ -8234,7 +8312,9 @@
       <c r="B369" s="40" t="n">
         <v>-11</v>
       </c>
-      <c r="C369" s="84"/>
+      <c r="C369" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D369" s="13"/>
       <c r="E369" s="13"/>
     </row>
@@ -8242,7 +8322,9 @@
       <c r="B370" s="40" t="n">
         <v>-10</v>
       </c>
-      <c r="C370" s="84"/>
+      <c r="C370" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D370" s="13"/>
       <c r="E370" s="13"/>
     </row>
@@ -8250,7 +8332,9 @@
       <c r="B371" s="40" t="n">
         <v>-9</v>
       </c>
-      <c r="C371" s="84"/>
+      <c r="C371" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D371" s="13"/>
       <c r="E371" s="13"/>
     </row>
@@ -8258,7 +8342,9 @@
       <c r="B372" s="40" t="n">
         <v>-8</v>
       </c>
-      <c r="C372" s="84"/>
+      <c r="C372" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D372" s="13"/>
       <c r="E372" s="13"/>
     </row>
@@ -8266,7 +8352,9 @@
       <c r="B373" s="40" t="n">
         <v>-7</v>
       </c>
-      <c r="C373" s="84"/>
+      <c r="C373" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D373" s="13"/>
       <c r="E373" s="13"/>
     </row>
@@ -8274,7 +8362,9 @@
       <c r="B374" s="40" t="n">
         <v>-6</v>
       </c>
-      <c r="C374" s="84"/>
+      <c r="C374" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D374" s="13"/>
       <c r="E374" s="13"/>
     </row>
@@ -8282,7 +8372,9 @@
       <c r="B375" s="40" t="n">
         <v>-5</v>
       </c>
-      <c r="C375" s="84"/>
+      <c r="C375" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D375" s="13"/>
       <c r="E375" s="13"/>
     </row>
@@ -8290,7 +8382,9 @@
       <c r="B376" s="40" t="n">
         <v>-4</v>
       </c>
-      <c r="C376" s="84"/>
+      <c r="C376" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D376" s="13"/>
       <c r="E376" s="13"/>
     </row>
@@ -8298,7 +8392,9 @@
       <c r="B377" s="40" t="n">
         <v>-3</v>
       </c>
-      <c r="C377" s="84"/>
+      <c r="C377" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D377" s="13"/>
       <c r="E377" s="13"/>
     </row>
@@ -8306,7 +8402,9 @@
       <c r="B378" s="40" t="n">
         <v>-2</v>
       </c>
-      <c r="C378" s="84"/>
+      <c r="C378" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D378" s="13"/>
       <c r="E378" s="13"/>
     </row>
@@ -8314,7 +8412,9 @@
       <c r="B379" s="40" t="n">
         <v>-1</v>
       </c>
-      <c r="C379" s="84"/>
+      <c r="C379" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D379" s="13"/>
       <c r="E379" s="13"/>
     </row>
@@ -8322,7 +8422,9 @@
       <c r="B380" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="C380" s="84"/>
+      <c r="C380" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D380" s="13"/>
       <c r="E380" s="13"/>
     </row>
@@ -8330,7 +8432,9 @@
       <c r="B381" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="C381" s="84"/>
+      <c r="C381" s="84" t="n">
+        <v>4</v>
+      </c>
       <c r="D381" s="13"/>
       <c r="E381" s="13"/>
     </row>
@@ -8338,7 +8442,9 @@
       <c r="B382" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="C382" s="84"/>
+      <c r="C382" s="84" t="n">
+        <v>4</v>
+      </c>
       <c r="D382" s="13"/>
       <c r="E382" s="13"/>
     </row>
@@ -8346,7 +8452,9 @@
       <c r="B383" s="40" t="n">
         <v>3</v>
       </c>
-      <c r="C383" s="84"/>
+      <c r="C383" s="84" t="n">
+        <v>20</v>
+      </c>
       <c r="D383" s="13"/>
       <c r="E383" s="13"/>
     </row>
@@ -8354,7 +8462,9 @@
       <c r="B384" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="C384" s="84"/>
+      <c r="C384" s="84" t="n">
+        <v>21</v>
+      </c>
       <c r="D384" s="13"/>
       <c r="E384" s="13"/>
     </row>
@@ -8362,7 +8472,9 @@
       <c r="B385" s="40" t="n">
         <v>5</v>
       </c>
-      <c r="C385" s="84"/>
+      <c r="C385" s="84" t="n">
+        <v>39</v>
+      </c>
       <c r="D385" s="13"/>
       <c r="E385" s="13"/>
     </row>
@@ -8370,7 +8482,9 @@
       <c r="B386" s="40" t="n">
         <v>6</v>
       </c>
-      <c r="C386" s="84"/>
+      <c r="C386" s="84" t="n">
+        <v>51</v>
+      </c>
       <c r="D386" s="13"/>
       <c r="E386" s="13"/>
     </row>
@@ -8378,7 +8492,9 @@
       <c r="B387" s="40" t="n">
         <v>7</v>
       </c>
-      <c r="C387" s="84"/>
+      <c r="C387" s="84" t="n">
+        <v>63</v>
+      </c>
       <c r="D387" s="13"/>
       <c r="E387" s="13"/>
     </row>
@@ -8386,7 +8502,9 @@
       <c r="B388" s="40" t="n">
         <v>8</v>
       </c>
-      <c r="C388" s="84"/>
+      <c r="C388" s="84" t="n">
+        <v>71</v>
+      </c>
       <c r="D388" s="13"/>
       <c r="E388" s="13"/>
     </row>
@@ -8394,7 +8512,9 @@
       <c r="B389" s="40" t="n">
         <v>9</v>
       </c>
-      <c r="C389" s="84"/>
+      <c r="C389" s="84" t="n">
+        <v>83</v>
+      </c>
       <c r="D389" s="13"/>
       <c r="E389" s="13"/>
     </row>
@@ -8402,7 +8522,9 @@
       <c r="B390" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="C390" s="84"/>
+      <c r="C390" s="84" t="n">
+        <v>128</v>
+      </c>
       <c r="D390" s="13"/>
       <c r="E390" s="13"/>
     </row>
@@ -8410,7 +8532,9 @@
       <c r="B391" s="40" t="n">
         <v>11</v>
       </c>
-      <c r="C391" s="84"/>
+      <c r="C391" s="84" t="n">
+        <v>164</v>
+      </c>
       <c r="D391" s="13"/>
       <c r="E391" s="13"/>
     </row>
@@ -8418,7 +8542,9 @@
       <c r="B392" s="40" t="n">
         <v>12</v>
       </c>
-      <c r="C392" s="84"/>
+      <c r="C392" s="84" t="n">
+        <v>218</v>
+      </c>
       <c r="D392" s="13"/>
       <c r="E392" s="13"/>
     </row>
@@ -8426,7 +8552,9 @@
       <c r="B393" s="40" t="n">
         <v>13</v>
       </c>
-      <c r="C393" s="84"/>
+      <c r="C393" s="84" t="n">
+        <v>185</v>
+      </c>
       <c r="D393" s="13"/>
       <c r="E393" s="13"/>
     </row>
@@ -8434,7 +8562,9 @@
       <c r="B394" s="40" t="n">
         <v>14</v>
       </c>
-      <c r="C394" s="84"/>
+      <c r="C394" s="84" t="n">
+        <v>197</v>
+      </c>
       <c r="D394" s="13"/>
       <c r="E394" s="13"/>
     </row>
@@ -8442,7 +8572,9 @@
       <c r="B395" s="40" t="n">
         <v>15</v>
       </c>
-      <c r="C395" s="84"/>
+      <c r="C395" s="84" t="n">
+        <v>253</v>
+      </c>
       <c r="D395" s="13"/>
       <c r="E395" s="13"/>
     </row>
@@ -8450,7 +8582,9 @@
       <c r="B396" s="40" t="n">
         <v>16</v>
       </c>
-      <c r="C396" s="84"/>
+      <c r="C396" s="84" t="n">
+        <v>269</v>
+      </c>
       <c r="D396" s="13"/>
       <c r="E396" s="13"/>
     </row>
@@ -8458,7 +8592,9 @@
       <c r="B397" s="40" t="n">
         <v>17</v>
       </c>
-      <c r="C397" s="84"/>
+      <c r="C397" s="84" t="n">
+        <v>241</v>
+      </c>
       <c r="D397" s="13"/>
       <c r="E397" s="13"/>
     </row>
@@ -8466,7 +8602,9 @@
       <c r="B398" s="40" t="n">
         <v>18</v>
       </c>
-      <c r="C398" s="84"/>
+      <c r="C398" s="84" t="n">
+        <v>312</v>
+      </c>
       <c r="D398" s="13"/>
       <c r="E398" s="13"/>
     </row>
@@ -8474,7 +8612,9 @@
       <c r="B399" s="40" t="n">
         <v>19</v>
       </c>
-      <c r="C399" s="84"/>
+      <c r="C399" s="84" t="n">
+        <v>321</v>
+      </c>
       <c r="D399" s="13"/>
       <c r="E399" s="13"/>
     </row>
@@ -8482,7 +8622,9 @@
       <c r="B400" s="40" t="n">
         <v>20</v>
       </c>
-      <c r="C400" s="84"/>
+      <c r="C400" s="84" t="n">
+        <v>337</v>
+      </c>
       <c r="D400" s="13"/>
       <c r="E400" s="13"/>
     </row>
@@ -8490,7 +8632,9 @@
       <c r="B401" s="40" t="n">
         <v>21</v>
       </c>
-      <c r="C401" s="84"/>
+      <c r="C401" s="84" t="n">
+        <v>305</v>
+      </c>
       <c r="D401" s="13"/>
       <c r="E401" s="13"/>
     </row>
@@ -8498,7 +8642,9 @@
       <c r="B402" s="40" t="n">
         <v>22</v>
       </c>
-      <c r="C402" s="84"/>
+      <c r="C402" s="84" t="n">
+        <v>324</v>
+      </c>
       <c r="D402" s="13"/>
       <c r="E402" s="13"/>
     </row>
@@ -8506,7 +8652,9 @@
       <c r="B403" s="40" t="n">
         <v>23</v>
       </c>
-      <c r="C403" s="84"/>
+      <c r="C403" s="84" t="n">
+        <v>302</v>
+      </c>
       <c r="D403" s="13"/>
       <c r="E403" s="13"/>
     </row>
@@ -8514,7 +8662,9 @@
       <c r="B404" s="40" t="n">
         <v>24</v>
       </c>
-      <c r="C404" s="84"/>
+      <c r="C404" s="84" t="n">
+        <v>276</v>
+      </c>
       <c r="D404" s="13"/>
       <c r="E404" s="13"/>
     </row>
@@ -8522,7 +8672,9 @@
       <c r="B405" s="40" t="n">
         <v>25</v>
       </c>
-      <c r="C405" s="84"/>
+      <c r="C405" s="84" t="n">
+        <v>296</v>
+      </c>
       <c r="D405" s="13"/>
       <c r="E405" s="13"/>
     </row>
@@ -8530,7 +8682,9 @@
       <c r="B406" s="40" t="n">
         <v>26</v>
       </c>
-      <c r="C406" s="84"/>
+      <c r="C406" s="84" t="n">
+        <v>283</v>
+      </c>
       <c r="D406" s="13"/>
       <c r="E406" s="13"/>
     </row>
@@ -8538,7 +8692,9 @@
       <c r="B407" s="40" t="n">
         <v>27</v>
       </c>
-      <c r="C407" s="84"/>
+      <c r="C407" s="84" t="n">
+        <v>313</v>
+      </c>
       <c r="D407" s="13"/>
       <c r="E407" s="13"/>
     </row>
@@ -8546,7 +8702,9 @@
       <c r="B408" s="40" t="n">
         <v>28</v>
       </c>
-      <c r="C408" s="84"/>
+      <c r="C408" s="84" t="n">
+        <v>302</v>
+      </c>
       <c r="D408" s="13"/>
       <c r="E408" s="13"/>
     </row>
@@ -8554,7 +8712,9 @@
       <c r="B409" s="40" t="n">
         <v>29</v>
       </c>
-      <c r="C409" s="84"/>
+      <c r="C409" s="84" t="n">
+        <v>326</v>
+      </c>
       <c r="D409" s="13"/>
       <c r="E409" s="13"/>
     </row>
@@ -8562,7 +8722,9 @@
       <c r="B410" s="40" t="n">
         <v>30</v>
       </c>
-      <c r="C410" s="84"/>
+      <c r="C410" s="84" t="n">
+        <v>356</v>
+      </c>
       <c r="D410" s="13"/>
       <c r="E410" s="13"/>
     </row>
@@ -8570,7 +8732,9 @@
       <c r="B411" s="40" t="n">
         <v>31</v>
       </c>
-      <c r="C411" s="84"/>
+      <c r="C411" s="84" t="n">
+        <v>386</v>
+      </c>
       <c r="D411" s="13"/>
       <c r="E411" s="13"/>
     </row>
@@ -8578,7 +8742,9 @@
       <c r="B412" s="40" t="n">
         <v>32</v>
       </c>
-      <c r="C412" s="84"/>
+      <c r="C412" s="84" t="n">
+        <v>366</v>
+      </c>
       <c r="D412" s="13"/>
       <c r="E412" s="13"/>
     </row>
@@ -8586,7 +8752,9 @@
       <c r="B413" s="40" t="n">
         <v>33</v>
       </c>
-      <c r="C413" s="84"/>
+      <c r="C413" s="84" t="n">
+        <v>399</v>
+      </c>
       <c r="D413" s="13"/>
       <c r="E413" s="13"/>
     </row>
@@ -8594,7 +8762,9 @@
       <c r="B414" s="40" t="n">
         <v>34</v>
       </c>
-      <c r="C414" s="84"/>
+      <c r="C414" s="84" t="n">
+        <v>374</v>
+      </c>
       <c r="D414" s="13"/>
       <c r="E414" s="13"/>
     </row>
@@ -8602,7 +8772,9 @@
       <c r="B415" s="40" t="n">
         <v>35</v>
       </c>
-      <c r="C415" s="84"/>
+      <c r="C415" s="84" t="n">
+        <v>315</v>
+      </c>
       <c r="D415" s="13"/>
       <c r="E415" s="13"/>
     </row>
@@ -8610,7 +8782,9 @@
       <c r="B416" s="40" t="n">
         <v>36</v>
       </c>
-      <c r="C416" s="84"/>
+      <c r="C416" s="84" t="n">
+        <v>253</v>
+      </c>
       <c r="D416" s="13"/>
       <c r="E416" s="13"/>
     </row>
@@ -8618,7 +8792,9 @@
       <c r="B417" s="40" t="n">
         <v>37</v>
       </c>
-      <c r="C417" s="84"/>
+      <c r="C417" s="84" t="n">
+        <v>209</v>
+      </c>
       <c r="D417" s="13"/>
       <c r="E417" s="13"/>
     </row>
@@ -8626,7 +8802,9 @@
       <c r="B418" s="40" t="n">
         <v>38</v>
       </c>
-      <c r="C418" s="84"/>
+      <c r="C418" s="84" t="n">
+        <v>152</v>
+      </c>
       <c r="D418" s="13"/>
       <c r="E418" s="13"/>
     </row>
@@ -8634,7 +8812,9 @@
       <c r="B419" s="40" t="n">
         <v>39</v>
       </c>
-      <c r="C419" s="84"/>
+      <c r="C419" s="84" t="n">
+        <v>118</v>
+      </c>
       <c r="D419" s="13"/>
       <c r="E419" s="13"/>
     </row>
@@ -8642,7 +8822,9 @@
       <c r="B420" s="40" t="n">
         <v>40</v>
       </c>
-      <c r="C420" s="84"/>
+      <c r="C420" s="84" t="n">
+        <v>64</v>
+      </c>
       <c r="D420" s="13"/>
       <c r="E420" s="13"/>
     </row>
@@ -8650,7 +8832,9 @@
       <c r="B421" s="40" t="n">
         <v>41</v>
       </c>
-      <c r="C421" s="84"/>
+      <c r="C421" s="84" t="n">
+        <v>34</v>
+      </c>
       <c r="D421" s="13"/>
       <c r="E421" s="13"/>
     </row>
@@ -8658,7 +8842,9 @@
       <c r="B422" s="40" t="n">
         <v>42</v>
       </c>
-      <c r="C422" s="84"/>
+      <c r="C422" s="84" t="n">
+        <v>17</v>
+      </c>
       <c r="D422" s="13"/>
       <c r="E422" s="13"/>
     </row>
@@ -8666,7 +8852,9 @@
       <c r="B423" s="40" t="n">
         <v>43</v>
       </c>
-      <c r="C423" s="84"/>
+      <c r="C423" s="84" t="n">
+        <v>7</v>
+      </c>
       <c r="D423" s="13"/>
       <c r="E423" s="13"/>
     </row>
@@ -8674,7 +8862,9 @@
       <c r="B424" s="40" t="n">
         <v>44</v>
       </c>
-      <c r="C424" s="84"/>
+      <c r="C424" s="84" t="n">
+        <v>2</v>
+      </c>
       <c r="D424" s="13"/>
       <c r="E424" s="13"/>
     </row>
@@ -8682,7 +8872,9 @@
       <c r="B425" s="40" t="n">
         <v>45</v>
       </c>
-      <c r="C425" s="84"/>
+      <c r="C425" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D425" s="13"/>
       <c r="E425" s="13"/>
     </row>
@@ -8690,7 +8882,9 @@
       <c r="B426" s="40" t="n">
         <v>46</v>
       </c>
-      <c r="C426" s="84"/>
+      <c r="C426" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D426" s="13"/>
       <c r="E426" s="13"/>
     </row>
@@ -8698,7 +8892,9 @@
       <c r="B427" s="40" t="n">
         <v>47</v>
       </c>
-      <c r="C427" s="84"/>
+      <c r="C427" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D427" s="13"/>
       <c r="E427" s="13"/>
     </row>
@@ -8706,7 +8902,9 @@
       <c r="B428" s="40" t="n">
         <v>48</v>
       </c>
-      <c r="C428" s="84"/>
+      <c r="C428" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D428" s="13"/>
       <c r="E428" s="13"/>
     </row>
@@ -8714,7 +8912,9 @@
       <c r="B429" s="40" t="n">
         <v>49</v>
       </c>
-      <c r="C429" s="84"/>
+      <c r="C429" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D429" s="13"/>
       <c r="E429" s="13"/>
     </row>
@@ -8722,7 +8922,9 @@
       <c r="B430" s="40" t="n">
         <v>50</v>
       </c>
-      <c r="C430" s="84"/>
+      <c r="C430" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D430" s="13"/>
       <c r="E430" s="13"/>
     </row>
@@ -8730,7 +8932,9 @@
       <c r="B431" s="40" t="n">
         <v>51</v>
       </c>
-      <c r="C431" s="84"/>
+      <c r="C431" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D431" s="13"/>
       <c r="E431" s="13"/>
     </row>
@@ -8738,7 +8942,9 @@
       <c r="B432" s="40" t="n">
         <v>52</v>
       </c>
-      <c r="C432" s="84"/>
+      <c r="C432" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D432" s="13"/>
       <c r="E432" s="13"/>
     </row>
@@ -8746,7 +8952,9 @@
       <c r="B433" s="40" t="n">
         <v>53</v>
       </c>
-      <c r="C433" s="84"/>
+      <c r="C433" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D433" s="13"/>
       <c r="E433" s="13"/>
     </row>
@@ -8754,7 +8962,9 @@
       <c r="B434" s="40" t="n">
         <v>54</v>
       </c>
-      <c r="C434" s="84"/>
+      <c r="C434" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D434" s="13"/>
       <c r="E434" s="13"/>
     </row>
@@ -8762,7 +8972,9 @@
       <c r="B435" s="40" t="n">
         <v>55</v>
       </c>
-      <c r="C435" s="84"/>
+      <c r="C435" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D435" s="13"/>
       <c r="E435" s="13"/>
     </row>
@@ -8770,7 +8982,9 @@
       <c r="B436" s="40" t="n">
         <v>56</v>
       </c>
-      <c r="C436" s="84"/>
+      <c r="C436" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D436" s="13"/>
       <c r="E436" s="13"/>
     </row>
@@ -8778,7 +8992,9 @@
       <c r="B437" s="40" t="n">
         <v>57</v>
       </c>
-      <c r="C437" s="84"/>
+      <c r="C437" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D437" s="13"/>
       <c r="E437" s="13"/>
     </row>
@@ -8786,7 +9002,9 @@
       <c r="B438" s="40" t="n">
         <v>58</v>
       </c>
-      <c r="C438" s="84"/>
+      <c r="C438" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D438" s="13"/>
       <c r="E438" s="13"/>
     </row>
@@ -8794,7 +9012,9 @@
       <c r="B439" s="40" t="n">
         <v>59</v>
       </c>
-      <c r="C439" s="84"/>
+      <c r="C439" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D439" s="13"/>
       <c r="E439" s="13"/>
     </row>
@@ -8802,7 +9022,9 @@
       <c r="B440" s="40" t="n">
         <v>60</v>
       </c>
-      <c r="C440" s="84"/>
+      <c r="C440" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D440" s="13"/>
       <c r="E440" s="13"/>
     </row>
@@ -8810,7 +9032,9 @@
       <c r="B441" s="40" t="n">
         <v>61</v>
       </c>
-      <c r="C441" s="84"/>
+      <c r="C441" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D441" s="13"/>
       <c r="E441" s="13"/>
     </row>
@@ -8818,7 +9042,9 @@
       <c r="B442" s="40" t="n">
         <v>62</v>
       </c>
-      <c r="C442" s="84"/>
+      <c r="C442" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D442" s="13"/>
       <c r="E442" s="13"/>
     </row>
@@ -8826,7 +9052,9 @@
       <c r="B443" s="40" t="n">
         <v>63</v>
       </c>
-      <c r="C443" s="84"/>
+      <c r="C443" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D443" s="13"/>
       <c r="E443" s="13"/>
     </row>
@@ -8834,7 +9062,9 @@
       <c r="B444" s="40" t="n">
         <v>64</v>
       </c>
-      <c r="C444" s="84"/>
+      <c r="C444" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D444" s="13"/>
       <c r="E444" s="13"/>
     </row>
@@ -8842,7 +9072,9 @@
       <c r="B445" s="40" t="n">
         <v>65</v>
       </c>
-      <c r="C445" s="84"/>
+      <c r="C445" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D445" s="13"/>
       <c r="E445" s="13"/>
     </row>
@@ -8850,7 +9082,9 @@
       <c r="B446" s="40" t="n">
         <v>66</v>
       </c>
-      <c r="C446" s="84"/>
+      <c r="C446" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D446" s="13"/>
       <c r="E446" s="13"/>
     </row>
@@ -8858,7 +9092,9 @@
       <c r="B447" s="40" t="n">
         <v>67</v>
       </c>
-      <c r="C447" s="84"/>
+      <c r="C447" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D447" s="13"/>
       <c r="E447" s="13"/>
     </row>
@@ -8866,7 +9102,9 @@
       <c r="B448" s="40" t="n">
         <v>68</v>
       </c>
-      <c r="C448" s="84"/>
+      <c r="C448" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D448" s="13"/>
       <c r="E448" s="13"/>
     </row>
@@ -8874,7 +9112,9 @@
       <c r="B449" s="40" t="n">
         <v>69</v>
       </c>
-      <c r="C449" s="84"/>
+      <c r="C449" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D449" s="13"/>
       <c r="E449" s="13"/>
     </row>
@@ -8882,7 +9122,9 @@
       <c r="B450" s="40" t="n">
         <v>70</v>
       </c>
-      <c r="C450" s="84"/>
+      <c r="C450" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D450" s="13"/>
       <c r="E450" s="13"/>
     </row>
@@ -8890,7 +9132,9 @@
       <c r="B451" s="40" t="n">
         <v>71</v>
       </c>
-      <c r="C451" s="84"/>
+      <c r="C451" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D451" s="13"/>
       <c r="E451" s="13"/>
     </row>
@@ -8898,7 +9142,9 @@
       <c r="B452" s="40" t="n">
         <v>72</v>
       </c>
-      <c r="C452" s="84"/>
+      <c r="C452" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D452" s="13"/>
       <c r="E452" s="13"/>
     </row>
@@ -8906,7 +9152,9 @@
       <c r="B453" s="40" t="n">
         <v>73</v>
       </c>
-      <c r="C453" s="84"/>
+      <c r="C453" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D453" s="13"/>
       <c r="E453" s="13"/>
     </row>
@@ -8914,7 +9162,9 @@
       <c r="B454" s="40" t="n">
         <v>74</v>
       </c>
-      <c r="C454" s="84"/>
+      <c r="C454" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D454" s="13"/>
       <c r="E454" s="13"/>
     </row>
@@ -8922,7 +9172,9 @@
       <c r="B455" s="40" t="n">
         <v>75</v>
       </c>
-      <c r="C455" s="84"/>
+      <c r="C455" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D455" s="13"/>
       <c r="E455" s="13"/>
     </row>
@@ -8930,7 +9182,9 @@
       <c r="B456" s="40" t="n">
         <v>76</v>
       </c>
-      <c r="C456" s="84"/>
+      <c r="C456" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D456" s="13"/>
       <c r="E456" s="13"/>
     </row>
@@ -8938,7 +9192,9 @@
       <c r="B457" s="40" t="n">
         <v>77</v>
       </c>
-      <c r="C457" s="84"/>
+      <c r="C457" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D457" s="13"/>
       <c r="E457" s="13"/>
     </row>
@@ -8946,7 +9202,9 @@
       <c r="B458" s="40" t="n">
         <v>78</v>
       </c>
-      <c r="C458" s="84"/>
+      <c r="C458" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D458" s="13"/>
       <c r="E458" s="13"/>
     </row>
@@ -8954,7 +9212,9 @@
       <c r="B459" s="40" t="n">
         <v>79</v>
       </c>
-      <c r="C459" s="84"/>
+      <c r="C459" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D459" s="13"/>
       <c r="E459" s="13"/>
     </row>
@@ -8962,7 +9222,9 @@
       <c r="B460" s="40" t="n">
         <v>80</v>
       </c>
-      <c r="C460" s="84"/>
+      <c r="C460" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D460" s="13"/>
       <c r="E460" s="13"/>
     </row>
@@ -8970,7 +9232,9 @@
       <c r="B461" s="40" t="n">
         <v>81</v>
       </c>
-      <c r="C461" s="84"/>
+      <c r="C461" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D461" s="13"/>
       <c r="E461" s="13"/>
     </row>
@@ -8978,7 +9242,9 @@
       <c r="B462" s="40" t="n">
         <v>82</v>
       </c>
-      <c r="C462" s="84"/>
+      <c r="C462" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D462" s="13"/>
       <c r="E462" s="13"/>
     </row>
@@ -8986,7 +9252,9 @@
       <c r="B463" s="40" t="n">
         <v>83</v>
       </c>
-      <c r="C463" s="84"/>
+      <c r="C463" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D463" s="13"/>
       <c r="E463" s="13"/>
     </row>
@@ -8994,7 +9262,9 @@
       <c r="B464" s="40" t="n">
         <v>84</v>
       </c>
-      <c r="C464" s="84"/>
+      <c r="C464" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D464" s="13"/>
       <c r="E464" s="13"/>
     </row>
@@ -9002,7 +9272,9 @@
       <c r="B465" s="40" t="n">
         <v>85</v>
       </c>
-      <c r="C465" s="84"/>
+      <c r="C465" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D465" s="13"/>
       <c r="E465" s="13"/>
     </row>
@@ -9010,7 +9282,9 @@
       <c r="B466" s="40" t="n">
         <v>86</v>
       </c>
-      <c r="C466" s="84"/>
+      <c r="C466" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D466" s="13"/>
       <c r="E466" s="13"/>
     </row>
@@ -9018,7 +9292,9 @@
       <c r="B467" s="40" t="n">
         <v>87</v>
       </c>
-      <c r="C467" s="84"/>
+      <c r="C467" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D467" s="13"/>
       <c r="E467" s="13"/>
     </row>
@@ -9026,7 +9302,9 @@
       <c r="B468" s="40" t="n">
         <v>88</v>
       </c>
-      <c r="C468" s="84"/>
+      <c r="C468" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D468" s="13"/>
       <c r="E468" s="13"/>
     </row>
@@ -9034,7 +9312,9 @@
       <c r="B469" s="40" t="n">
         <v>89</v>
       </c>
-      <c r="C469" s="84"/>
+      <c r="C469" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D469" s="13"/>
       <c r="E469" s="13"/>
     </row>
@@ -9042,7 +9322,9 @@
       <c r="B470" s="40" t="n">
         <v>90</v>
       </c>
-      <c r="C470" s="84"/>
+      <c r="C470" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D470" s="13"/>
       <c r="E470" s="13"/>
     </row>
@@ -9050,7 +9332,9 @@
       <c r="B471" s="40" t="n">
         <v>91</v>
       </c>
-      <c r="C471" s="84"/>
+      <c r="C471" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D471" s="13"/>
       <c r="E471" s="13"/>
     </row>
@@ -9058,7 +9342,9 @@
       <c r="B472" s="40" t="n">
         <v>92</v>
       </c>
-      <c r="C472" s="84"/>
+      <c r="C472" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D472" s="13"/>
       <c r="E472" s="13"/>
     </row>
@@ -9066,7 +9352,9 @@
       <c r="B473" s="40" t="n">
         <v>93</v>
       </c>
-      <c r="C473" s="84"/>
+      <c r="C473" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D473" s="13"/>
       <c r="E473" s="13"/>
     </row>
@@ -9074,7 +9362,9 @@
       <c r="B474" s="40" t="n">
         <v>94</v>
       </c>
-      <c r="C474" s="84"/>
+      <c r="C474" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D474" s="13"/>
       <c r="E474" s="13"/>
     </row>
@@ -9082,7 +9372,9 @@
       <c r="B475" s="40" t="n">
         <v>95</v>
       </c>
-      <c r="C475" s="84"/>
+      <c r="C475" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D475" s="13"/>
       <c r="E475" s="13"/>
     </row>
@@ -9090,7 +9382,9 @@
       <c r="B476" s="40" t="n">
         <v>96</v>
       </c>
-      <c r="C476" s="84"/>
+      <c r="C476" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D476" s="13"/>
       <c r="E476" s="13"/>
     </row>
@@ -9098,7 +9392,9 @@
       <c r="B477" s="40" t="n">
         <v>97</v>
       </c>
-      <c r="C477" s="84"/>
+      <c r="C477" s="84" t="n">
+        <v>0</v>
+      </c>
       <c r="D477" s="13"/>
       <c r="E477" s="13" t="s">
         <v>203</v>
@@ -9108,11 +9404,13 @@
       <c r="B478" s="47" t="n">
         <v>98</v>
       </c>
-      <c r="C478" s="100"/>
+      <c r="C478" s="100" t="n">
+        <v>0</v>
+      </c>
       <c r="D478" s="13"/>
       <c r="E478" s="13" t="n">
         <f aca="false">SUM(C330:C478)</f>
-        <v>0</v>
+        <v>8760</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
